--- a/VAPT-check-list.xlsx
+++ b/VAPT-check-list.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="396">
   <si>
     <t>Information Gathering</t>
   </si>
@@ -778,6 +778,453 @@
   </si>
   <si>
     <t>Out-of-date Version(Apache)</t>
+  </si>
+  <si>
+    <t>Security Headers</t>
+  </si>
+  <si>
+    <t>X-XSS-Protection</t>
+  </si>
+  <si>
+    <t>Strict-Transport-Security</t>
+  </si>
+  <si>
+    <t>Content-Security-Policy</t>
+  </si>
+  <si>
+    <t>Public-Key-Pins</t>
+  </si>
+  <si>
+    <t>X-Frame-Options</t>
+  </si>
+  <si>
+    <t>X-Content-Type-Options</t>
+  </si>
+  <si>
+    <t>Referer-Policy</t>
+  </si>
+  <si>
+    <t>Cache-Control</t>
+  </si>
+  <si>
+    <t>Expires</t>
+  </si>
+  <si>
+    <t>CAPTCHA Bypass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Send old captcha value. </t>
+  </si>
+  <si>
+    <t>Send old captcha value with old session ID.</t>
+  </si>
+  <si>
+    <t>Request captcha absolute path like www.url.com/captcha/1.png</t>
+  </si>
+  <si>
+    <t>Remove captcha with any adblocker and request again</t>
+  </si>
+  <si>
+    <t>Bypass with OCR tool (easy one)</t>
+  </si>
+  <si>
+    <t>Change from POST to GET</t>
+  </si>
+  <si>
+    <t>Remove captcha parameter</t>
+  </si>
+  <si>
+    <t>Convert JSON request to normal</t>
+  </si>
+  <si>
+    <t>Try header injections</t>
+  </si>
+  <si>
+    <t>Identify the logic attack surface</t>
+  </si>
+  <si>
+    <t>Test transmission of data via the client</t>
+  </si>
+  <si>
+    <t>Test for reliance on client-side input validation</t>
+  </si>
+  <si>
+    <t>Thick-client components (Java, ActiveX, Flash)</t>
+  </si>
+  <si>
+    <t>Multi-stage processes for logic flaws</t>
+  </si>
+  <si>
+    <t>Handling of incomplete input</t>
+  </si>
+  <si>
+    <t>Trust boundaries</t>
+  </si>
+  <si>
+    <t>Transaction logic</t>
+  </si>
+  <si>
+    <t>Implemented CAPTCHA in email forms to avoid flooding</t>
+  </si>
+  <si>
+    <t>Tamper product id, price or quantity value in any action (add, modify, delete, place, pay...)</t>
+  </si>
+  <si>
+    <t>Tamper gift or discount codes</t>
+  </si>
+  <si>
+    <t>Reuse gift codes</t>
+  </si>
+  <si>
+    <t>Try parameter pollution to use gift code two times in same request</t>
+  </si>
+  <si>
+    <t>Try stored XSS in non-limited fields like address</t>
+  </si>
+  <si>
+    <t>Check in payment form if CVV and card number is in clear text or masked</t>
+  </si>
+  <si>
+    <t>Check if is processed by the app itself or sent to 3rd parts</t>
+  </si>
+  <si>
+    <t>IDOR from other users details ticket/cart/shipment</t>
+  </si>
+  <si>
+    <t>Check for test credit card number allowed like 4111 1111 1111 1111 (sample1 sample2)</t>
+  </si>
+  <si>
+    <t>Check PRINT or PDF creation for IDOR</t>
+  </si>
+  <si>
+    <t>Check unsubscribe button with user enumeration</t>
+  </si>
+  <si>
+    <t>Parameter pollution on social media sharing links</t>
+  </si>
+  <si>
+    <t>Change POST sensitive requests to GET</t>
+  </si>
+  <si>
+    <t>Other checks</t>
+  </si>
+  <si>
+    <t>Error handling</t>
+  </si>
+  <si>
+    <t>Access custom pages like /whatever_fake.php (.aspx,.html,.etc)</t>
+  </si>
+  <si>
+    <t>Add multiple parameters in GET and POST request using different values</t>
+  </si>
+  <si>
+    <t>Add "[]", "]]", and "[[" in cookie values and parameter values to create errors</t>
+  </si>
+  <si>
+    <t>Generate error by giving input as "/~randomthing/%s" at the end of URL</t>
+  </si>
+  <si>
+    <t>Use Burp Intruder "Fuzzing Full" List in input to generate error codes</t>
+  </si>
+  <si>
+    <t>Try different HTTP Verbs like PATCH, DEBUG or wrong like FAKE</t>
+  </si>
+  <si>
+    <t>Forgot/reset password</t>
+  </si>
+  <si>
+    <t>Invalidate session on Logout and Password reset</t>
+  </si>
+  <si>
+    <t>Uniqueness of forget password reset link/code</t>
+  </si>
+  <si>
+    <t>Reset links expiration time</t>
+  </si>
+  <si>
+    <t>Find user id or other sensitive fields in reset link and tamper them</t>
+  </si>
+  <si>
+    <t>Request 2 reset passwords links and use the older</t>
+  </si>
+  <si>
+    <t>Check if many requests have sequential tokens</t>
+  </si>
+  <si>
+    <t>Use username@burp_collab.net and analyze the callback</t>
+  </si>
+  <si>
+    <t>Host header injection for token leakage</t>
+  </si>
+  <si>
+    <t>Add X-Forwarded-Host: evil.com to receive the reset link with evil.com</t>
+  </si>
+  <si>
+    <t>Email crafting like victim@gmail.com@target.com</t>
+  </si>
+  <si>
+    <t>IDOR in reset link</t>
+  </si>
+  <si>
+    <t>Capture reset token and use with other email/userID</t>
+  </si>
+  <si>
+    <t>No TLD in email parameter</t>
+  </si>
+  <si>
+    <t>User carbon copy email=victim@mail.com%0a%0dcc:hacker@mail.com</t>
+  </si>
+  <si>
+    <t>Long password (&gt;200) leads to DoS</t>
+  </si>
+  <si>
+    <t>No rate limit, capture request and send over 1000 times</t>
+  </si>
+  <si>
+    <t>Check encryption in reset password token</t>
+  </si>
+  <si>
+    <t>Session</t>
+  </si>
+  <si>
+    <t>Session handling</t>
+  </si>
+  <si>
+    <t>Test tokens for meaning</t>
+  </si>
+  <si>
+    <t>Test tokens for predictability</t>
+  </si>
+  <si>
+    <t>Insecure transmission of tokens</t>
+  </si>
+  <si>
+    <t>Disclosure of tokens in logs</t>
+  </si>
+  <si>
+    <t>Mapping of tokens to sessions</t>
+  </si>
+  <si>
+    <t>Session termination</t>
+  </si>
+  <si>
+    <t>Session fixation</t>
+  </si>
+  <si>
+    <t>Cookie scope</t>
+  </si>
+  <si>
+    <t>Decode Cookie (Base64, hex, URL etc.)</t>
+  </si>
+  <si>
+    <t>Cookie expiration time</t>
+  </si>
+  <si>
+    <t>Check HTTPOnly and Secure flags</t>
+  </si>
+  <si>
+    <t>Use same cookie from a different effective IP address or system</t>
+  </si>
+  <si>
+    <t>Cross-site request forgery</t>
+  </si>
+  <si>
+    <t>Access controls</t>
+  </si>
+  <si>
+    <t>Effectiveness of controls using multiple accounts</t>
+  </si>
+  <si>
+    <t>Insecure access control methods (request parameters, Referer header, etc)</t>
+  </si>
+  <si>
+    <t>Check for concurrent login through different machine/IP</t>
+  </si>
+  <si>
+    <t>Bypass AntiCSRF tokens</t>
+  </si>
+  <si>
+    <t>Weak generated security questions</t>
+  </si>
+  <si>
+    <t>Path traversal on cookies</t>
+  </si>
+  <si>
+    <t>Reuse cookie after session closed</t>
+  </si>
+  <si>
+    <t>Logout and click browser "go back" function (Alt + Left arrow)</t>
+  </si>
+  <si>
+    <t>2 instances open, 1st change or reset password, refresh 2nd instance</t>
+  </si>
+  <si>
+    <t>With privileged user perform privileged actions, try to repeat with unprivileged user cookie.</t>
+  </si>
+  <si>
+    <t>User management</t>
+  </si>
+  <si>
+    <t>Duplicate registration</t>
+  </si>
+  <si>
+    <t>Overwrite existing user (existing user takeover)</t>
+  </si>
+  <si>
+    <t>Username uniqueness</t>
+  </si>
+  <si>
+    <t>Weak password policy (user=password, password=123456,111111,abcabc,qwerty12)</t>
+  </si>
+  <si>
+    <t>Insufficient email verification process (also my%00email@mail.com for account tko)</t>
+  </si>
+  <si>
+    <t>Weak registration implementation or allows disposable email addresses</t>
+  </si>
+  <si>
+    <t>Fuzz after user creation to check if any folder have been overwritten or created with your profile name</t>
+  </si>
+  <si>
+    <t>Add only spaces in password</t>
+  </si>
+  <si>
+    <t>Corrupt authentication and session defects: Sign up, don't verify, request change password, change, check if account is active.</t>
+  </si>
+  <si>
+    <t>Try to re-register repeating same request with same password and different password too</t>
+  </si>
+  <si>
+    <t>If JSON request, add comma {“email”:“victim@mail.com”,”hacker@mail.com”,“token”:”xxxxxxxxxx”}</t>
+  </si>
+  <si>
+    <t>Lack of confirmation -&gt; try to register with company email.</t>
+  </si>
+  <si>
+    <t>Check OAuth with social media registration</t>
+  </si>
+  <si>
+    <t>Check state parameter on social media registration</t>
+  </si>
+  <si>
+    <t>Try to capture integration url leading integration takeover</t>
+  </si>
+  <si>
+    <t>Check redirections in register page after login</t>
+  </si>
+  <si>
+    <t>Network</t>
+  </si>
+  <si>
+    <t>Check ICMP packets allowed</t>
+  </si>
+  <si>
+    <t>Check DMARC/SPF policies (spoofcheck)</t>
+  </si>
+  <si>
+    <t>Open ports with Shodan</t>
+  </si>
+  <si>
+    <t>Port scan to all ports</t>
+  </si>
+  <si>
+    <t>Check UDP ports (udp-proto-scanner or nmap)</t>
+  </si>
+  <si>
+    <t>Test SSL (testssl)</t>
+  </si>
+  <si>
+    <t>If got creds, try password spraying for all the services discovered</t>
+  </si>
+  <si>
+    <t>Input handling</t>
+  </si>
+  <si>
+    <t>Fuzz all request parameters (if got user, add headers to fuzzer)</t>
+  </si>
+  <si>
+    <t>Identify all reflected data</t>
+  </si>
+  <si>
+    <t>Reflected XSS</t>
+  </si>
+  <si>
+    <t>HTTP header injection in GET &amp; POST (X Forwarded Host)</t>
+  </si>
+  <si>
+    <t>RCE via Referer Header</t>
+  </si>
+  <si>
+    <t>SQL injection via User-Agent Header</t>
+  </si>
+  <si>
+    <t>Arbitrary redirection</t>
+  </si>
+  <si>
+    <t>Stored attacks</t>
+  </si>
+  <si>
+    <t>OS command injection</t>
+  </si>
+  <si>
+    <t>Path traversal, LFI and RFI</t>
+  </si>
+  <si>
+    <t>Script injection</t>
+  </si>
+  <si>
+    <t>File inclusion</t>
+  </si>
+  <si>
+    <t>SMTP injection</t>
+  </si>
+  <si>
+    <t>Native software flaws (buffer overflow, integer bugs, format strings)</t>
+  </si>
+  <si>
+    <t>SOAP injection</t>
+  </si>
+  <si>
+    <t>LDAP injection</t>
+  </si>
+  <si>
+    <t>SSI Injection</t>
+  </si>
+  <si>
+    <t>XPath injection</t>
+  </si>
+  <si>
+    <t>XXE in any request, change content-type to text/xml</t>
+  </si>
+  <si>
+    <t>Stored XSS</t>
+  </si>
+  <si>
+    <t>SQL injection with ' and '--+-</t>
+  </si>
+  <si>
+    <t>NoSQL injection</t>
+  </si>
+  <si>
+    <t>HTTP Request Smuggling</t>
+  </si>
+  <si>
+    <t>Open redirect</t>
+  </si>
+  <si>
+    <t>Code Injection (&lt;h1&gt;six2dez&lt;/h1&gt; on stored param)</t>
+  </si>
+  <si>
+    <t>SSRF in previously discovered open ports</t>
+  </si>
+  <si>
+    <t>xmlrpc.php DOS and user enumeration</t>
+  </si>
+  <si>
+    <t>HTTP dangerous methods OPTIONS PUT DELETE</t>
+  </si>
+  <si>
+    <t>Try to discover hidden parameters (arjun or parameth)</t>
   </si>
 </sst>
 </file>
@@ -927,7 +1374,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -990,18 +1437,19 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1304,10 +1752,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J170"/>
+  <dimension ref="A1:J290"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A68" sqref="A68"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C262" sqref="C262:C290"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
@@ -1326,24 +1774,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="17" customFormat="1" ht="30">
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
     </row>
     <row r="2" spans="1:10" ht="13.8" thickBot="1">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="23" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="7" customFormat="1" ht="14.4" thickBot="1">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="22" t="s">
         <v>181</v>
       </c>
       <c r="C3" s="14" t="s">
@@ -1358,7 +1806,7 @@
       <c r="J3" s="8"/>
     </row>
     <row r="4" spans="1:10" s="7" customFormat="1" ht="14.4" thickBot="1">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="22" t="s">
         <v>182</v>
       </c>
       <c r="C4" s="16" t="s">
@@ -1373,7 +1821,7 @@
       <c r="J4" s="8"/>
     </row>
     <row r="5" spans="1:10" ht="14.4" thickBot="1">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="23" t="s">
         <v>183</v>
       </c>
       <c r="C5" s="13" t="s">
@@ -1388,7 +1836,7 @@
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:10" ht="14.4" thickBot="1">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="23" t="s">
         <v>184</v>
       </c>
       <c r="C6" s="13" t="s">
@@ -1403,7 +1851,7 @@
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10" ht="14.4" thickBot="1">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="23" t="s">
         <v>185</v>
       </c>
       <c r="C7" s="13" t="s">
@@ -1417,7 +1865,7 @@
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:10" ht="14.4" thickBot="1">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="23" t="s">
         <v>186</v>
       </c>
       <c r="C8" s="13" t="s">
@@ -1432,7 +1880,7 @@
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10" ht="14.4" thickBot="1">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="23" t="s">
         <v>187</v>
       </c>
       <c r="C9" s="13" t="s">
@@ -1447,7 +1895,7 @@
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:10" ht="14.4" thickBot="1">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="23" t="s">
         <v>188</v>
       </c>
       <c r="C10" s="13" t="s">
@@ -1462,7 +1910,7 @@
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:10" ht="14.4" thickBot="1">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="23" t="s">
         <v>189</v>
       </c>
       <c r="C11" s="13" t="s">
@@ -1477,7 +1925,7 @@
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:10" ht="14.4" thickBot="1">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="23" t="s">
         <v>190</v>
       </c>
       <c r="C12" s="13" t="s">
@@ -1492,7 +1940,7 @@
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:10" ht="14.4" thickBot="1">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="23" t="s">
         <v>191</v>
       </c>
       <c r="C13" s="13" t="s">
@@ -1507,7 +1955,7 @@
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:10" ht="14.4" thickBot="1">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="23" t="s">
         <v>192</v>
       </c>
       <c r="C14" s="13" t="s">
@@ -1522,7 +1970,7 @@
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:10" ht="14.4" thickBot="1">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="23" t="s">
         <v>193</v>
       </c>
       <c r="C15" s="13" t="s">
@@ -1537,7 +1985,7 @@
       <c r="J15" s="2"/>
     </row>
     <row r="16" spans="1:10" ht="14.4" thickBot="1">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="23" t="s">
         <v>194</v>
       </c>
       <c r="C16" s="13" t="s">
@@ -1552,7 +2000,7 @@
       <c r="J16" s="2"/>
     </row>
     <row r="17" spans="1:10" ht="14.4" thickBot="1">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="23" t="s">
         <v>195</v>
       </c>
       <c r="C17" s="13" t="s">
@@ -1567,7 +2015,7 @@
       <c r="J17" s="2"/>
     </row>
     <row r="18" spans="1:10" ht="14.4" thickBot="1">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="23" t="s">
         <v>196</v>
       </c>
       <c r="C18" s="13" t="s">
@@ -1582,7 +2030,7 @@
       <c r="J18" s="2"/>
     </row>
     <row r="19" spans="1:10" ht="13.8">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="23" t="s">
         <v>197</v>
       </c>
       <c r="C19" s="10"/>
@@ -1595,7 +2043,7 @@
       <c r="J19" s="2"/>
     </row>
     <row r="20" spans="1:10" ht="14.4" thickBot="1">
-      <c r="A20" s="25" t="s">
+      <c r="A20" s="23" t="s">
         <v>198</v>
       </c>
       <c r="C20" s="15" t="s">
@@ -1610,7 +2058,7 @@
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="1:10" ht="14.4" thickBot="1">
-      <c r="A21" s="25" t="s">
+      <c r="A21" s="23" t="s">
         <v>199</v>
       </c>
       <c r="C21" s="13" t="s">
@@ -1625,7 +2073,7 @@
       <c r="J21" s="2"/>
     </row>
     <row r="22" spans="1:10" ht="14.4" thickBot="1">
-      <c r="A22" s="25" t="s">
+      <c r="A22" s="23" t="s">
         <v>200</v>
       </c>
       <c r="C22" s="13" t="s">
@@ -1640,7 +2088,7 @@
       <c r="J22" s="2"/>
     </row>
     <row r="23" spans="1:10" ht="14.4" thickBot="1">
-      <c r="A23" s="25" t="s">
+      <c r="A23" s="23" t="s">
         <v>201</v>
       </c>
       <c r="C23" s="13" t="s">
@@ -1655,7 +2103,7 @@
       <c r="J23" s="2"/>
     </row>
     <row r="24" spans="1:10" ht="14.4" thickBot="1">
-      <c r="A24" s="25" t="s">
+      <c r="A24" s="23" t="s">
         <v>202</v>
       </c>
       <c r="C24" s="13" t="s">
@@ -1670,7 +2118,7 @@
       <c r="J24" s="2"/>
     </row>
     <row r="25" spans="1:10" ht="14.4" thickBot="1">
-      <c r="A25" s="25" t="s">
+      <c r="A25" s="23" t="s">
         <v>203</v>
       </c>
       <c r="C25" s="13" t="s">
@@ -1685,7 +2133,7 @@
       <c r="J25" s="2"/>
     </row>
     <row r="26" spans="1:10" ht="14.4" thickBot="1">
-      <c r="A26" s="25" t="s">
+      <c r="A26" s="23" t="s">
         <v>204</v>
       </c>
       <c r="C26" s="13" t="s">
@@ -1700,7 +2148,7 @@
       <c r="J26" s="2"/>
     </row>
     <row r="27" spans="1:10" ht="14.4" thickBot="1">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="23" t="s">
         <v>205</v>
       </c>
       <c r="C27" s="13" t="s">
@@ -1715,7 +2163,7 @@
       <c r="J27" s="2"/>
     </row>
     <row r="28" spans="1:10" ht="14.4" thickBot="1">
-      <c r="A28" s="25" t="s">
+      <c r="A28" s="23" t="s">
         <v>206</v>
       </c>
       <c r="C28" s="13" t="s">
@@ -1730,7 +2178,7 @@
       <c r="J28" s="2"/>
     </row>
     <row r="29" spans="1:10" ht="13.8">
-      <c r="A29" s="25" t="s">
+      <c r="A29" s="23" t="s">
         <v>207</v>
       </c>
       <c r="C29" s="10"/>
@@ -1743,7 +2191,7 @@
       <c r="J29" s="2"/>
     </row>
     <row r="30" spans="1:10" ht="14.4" thickBot="1">
-      <c r="A30" s="25" t="s">
+      <c r="A30" s="23" t="s">
         <v>208</v>
       </c>
       <c r="C30" s="15" t="s">
@@ -1758,7 +2206,7 @@
       <c r="J30" s="2"/>
     </row>
     <row r="31" spans="1:10" ht="14.4" thickBot="1">
-      <c r="A31" s="25" t="s">
+      <c r="A31" s="23" t="s">
         <v>209</v>
       </c>
       <c r="C31" s="13" t="s">
@@ -1773,7 +2221,7 @@
       <c r="J31" s="2"/>
     </row>
     <row r="32" spans="1:10" ht="14.4" thickBot="1">
-      <c r="A32" s="25" t="s">
+      <c r="A32" s="23" t="s">
         <v>210</v>
       </c>
       <c r="C32" s="13" t="s">
@@ -1788,7 +2236,7 @@
       <c r="J32" s="2"/>
     </row>
     <row r="33" spans="1:10" ht="14.4" thickBot="1">
-      <c r="A33" s="25" t="s">
+      <c r="A33" s="23" t="s">
         <v>211</v>
       </c>
       <c r="C33" s="13" t="s">
@@ -1803,7 +2251,7 @@
       <c r="J33" s="2"/>
     </row>
     <row r="34" spans="1:10" ht="14.4" thickBot="1">
-      <c r="A34" s="25" t="s">
+      <c r="A34" s="23" t="s">
         <v>212</v>
       </c>
       <c r="C34" s="13" t="s">
@@ -1818,7 +2266,7 @@
       <c r="J34" s="2"/>
     </row>
     <row r="35" spans="1:10" ht="14.4" thickBot="1">
-      <c r="A35" s="25" t="s">
+      <c r="A35" s="23" t="s">
         <v>213</v>
       </c>
       <c r="C35" s="13" t="s">
@@ -1833,7 +2281,7 @@
       <c r="J35" s="2"/>
     </row>
     <row r="36" spans="1:10" ht="14.4" thickBot="1">
-      <c r="A36" s="25" t="s">
+      <c r="A36" s="23" t="s">
         <v>214</v>
       </c>
       <c r="C36" s="13" t="s">
@@ -1848,7 +2296,7 @@
       <c r="J36" s="2"/>
     </row>
     <row r="37" spans="1:10" ht="13.8">
-      <c r="A37" s="25" t="s">
+      <c r="A37" s="23" t="s">
         <v>215</v>
       </c>
       <c r="C37" s="12"/>
@@ -1861,7 +2309,7 @@
       <c r="J37" s="2"/>
     </row>
     <row r="38" spans="1:10" ht="14.4" thickBot="1">
-      <c r="A38" s="25" t="s">
+      <c r="A38" s="23" t="s">
         <v>216</v>
       </c>
       <c r="C38" s="15" t="s">
@@ -1876,7 +2324,7 @@
       <c r="J38" s="2"/>
     </row>
     <row r="39" spans="1:10" ht="14.4" thickBot="1">
-      <c r="A39" s="25" t="s">
+      <c r="A39" s="23" t="s">
         <v>217</v>
       </c>
       <c r="C39" s="13" t="s">
@@ -1891,7 +2339,7 @@
       <c r="J39" s="2"/>
     </row>
     <row r="40" spans="1:10" ht="14.4" thickBot="1">
-      <c r="A40" s="25" t="s">
+      <c r="A40" s="23" t="s">
         <v>218</v>
       </c>
       <c r="C40" s="13" t="s">
@@ -1906,7 +2354,7 @@
       <c r="J40" s="2"/>
     </row>
     <row r="41" spans="1:10" ht="14.4" thickBot="1">
-      <c r="A41" s="25" t="s">
+      <c r="A41" s="23" t="s">
         <v>219</v>
       </c>
       <c r="C41" s="13" t="s">
@@ -1921,7 +2369,7 @@
       <c r="J41" s="2"/>
     </row>
     <row r="42" spans="1:10" ht="14.4" thickBot="1">
-      <c r="A42" s="25" t="s">
+      <c r="A42" s="23" t="s">
         <v>220</v>
       </c>
       <c r="C42" s="13" t="s">
@@ -1936,7 +2384,7 @@
       <c r="J42" s="2"/>
     </row>
     <row r="43" spans="1:10" ht="14.4" thickBot="1">
-      <c r="A43" s="25" t="s">
+      <c r="A43" s="23" t="s">
         <v>221</v>
       </c>
       <c r="C43" s="13" t="s">
@@ -1951,7 +2399,7 @@
       <c r="J43" s="2"/>
     </row>
     <row r="44" spans="1:10" ht="14.4" thickBot="1">
-      <c r="A44" s="25" t="s">
+      <c r="A44" s="23" t="s">
         <v>222</v>
       </c>
       <c r="C44" s="13" t="s">
@@ -1966,7 +2414,7 @@
       <c r="J44" s="2"/>
     </row>
     <row r="45" spans="1:10" ht="14.4" thickBot="1">
-      <c r="A45" s="25" t="s">
+      <c r="A45" s="23" t="s">
         <v>223</v>
       </c>
       <c r="C45" s="13" t="s">
@@ -1981,7 +2429,7 @@
       <c r="J45" s="2"/>
     </row>
     <row r="46" spans="1:10" ht="14.4" thickBot="1">
-      <c r="A46" s="25" t="s">
+      <c r="A46" s="23" t="s">
         <v>224</v>
       </c>
       <c r="C46" s="13" t="s">
@@ -1996,7 +2444,7 @@
       <c r="J46" s="2"/>
     </row>
     <row r="47" spans="1:10" ht="14.4" thickBot="1">
-      <c r="A47" s="25" t="s">
+      <c r="A47" s="23" t="s">
         <v>225</v>
       </c>
       <c r="C47" s="13" t="s">
@@ -2011,7 +2459,7 @@
       <c r="J47" s="2"/>
     </row>
     <row r="48" spans="1:10" ht="14.4" thickBot="1">
-      <c r="A48" s="25" t="s">
+      <c r="A48" s="23" t="s">
         <v>226</v>
       </c>
       <c r="C48" s="13" t="s">
@@ -2026,7 +2474,7 @@
       <c r="J48" s="2"/>
     </row>
     <row r="49" spans="1:10" ht="14.4" thickBot="1">
-      <c r="A49" s="25" t="s">
+      <c r="A49" s="23" t="s">
         <v>227</v>
       </c>
       <c r="C49" s="13" t="s">
@@ -2041,7 +2489,7 @@
       <c r="J49" s="2"/>
     </row>
     <row r="50" spans="1:10" ht="14.4" thickBot="1">
-      <c r="A50" s="25" t="s">
+      <c r="A50" s="23" t="s">
         <v>228</v>
       </c>
       <c r="C50" s="13" t="s">
@@ -2056,7 +2504,7 @@
       <c r="J50" s="2"/>
     </row>
     <row r="51" spans="1:10" ht="14.4" thickBot="1">
-      <c r="A51" s="25" t="s">
+      <c r="A51" s="23" t="s">
         <v>229</v>
       </c>
       <c r="C51" s="13" t="s">
@@ -2071,7 +2519,7 @@
       <c r="J51" s="2"/>
     </row>
     <row r="52" spans="1:10" ht="14.4" thickBot="1">
-      <c r="A52" s="25" t="s">
+      <c r="A52" s="23" t="s">
         <v>230</v>
       </c>
       <c r="C52" s="13" t="s">
@@ -2086,7 +2534,7 @@
       <c r="J52" s="2"/>
     </row>
     <row r="53" spans="1:10" ht="14.4" thickBot="1">
-      <c r="A53" s="25" t="s">
+      <c r="A53" s="23" t="s">
         <v>231</v>
       </c>
       <c r="C53" s="13" t="s">
@@ -2101,7 +2549,7 @@
       <c r="J53" s="2"/>
     </row>
     <row r="54" spans="1:10" ht="14.4" thickBot="1">
-      <c r="A54" s="25" t="s">
+      <c r="A54" s="23" t="s">
         <v>232</v>
       </c>
       <c r="C54" s="13" t="s">
@@ -2116,7 +2564,7 @@
       <c r="J54" s="2"/>
     </row>
     <row r="55" spans="1:10" ht="13.8">
-      <c r="A55" s="25" t="s">
+      <c r="A55" s="23" t="s">
         <v>233</v>
       </c>
       <c r="C55" s="10"/>
@@ -2129,7 +2577,7 @@
       <c r="J55" s="2"/>
     </row>
     <row r="56" spans="1:10" ht="14.4" thickBot="1">
-      <c r="A56" s="25" t="s">
+      <c r="A56" s="23" t="s">
         <v>234</v>
       </c>
       <c r="C56" s="15" t="s">
@@ -2144,7 +2592,7 @@
       <c r="J56" s="2"/>
     </row>
     <row r="57" spans="1:10" ht="14.4" thickBot="1">
-      <c r="A57" s="25" t="s">
+      <c r="A57" s="23" t="s">
         <v>235</v>
       </c>
       <c r="C57" s="13" t="s">
@@ -2159,7 +2607,7 @@
       <c r="J57" s="2"/>
     </row>
     <row r="58" spans="1:10" ht="14.4" thickBot="1">
-      <c r="A58" s="25" t="s">
+      <c r="A58" s="23" t="s">
         <v>236</v>
       </c>
       <c r="C58" s="13" t="s">
@@ -2174,7 +2622,7 @@
       <c r="J58" s="2"/>
     </row>
     <row r="59" spans="1:10" ht="14.4" thickBot="1">
-      <c r="A59" s="25" t="s">
+      <c r="A59" s="23" t="s">
         <v>237</v>
       </c>
       <c r="C59" s="13" t="s">
@@ -2189,7 +2637,7 @@
       <c r="J59" s="2"/>
     </row>
     <row r="60" spans="1:10" ht="14.4" thickBot="1">
-      <c r="A60" s="25" t="s">
+      <c r="A60" s="23" t="s">
         <v>238</v>
       </c>
       <c r="C60" s="13" t="s">
@@ -2204,7 +2652,7 @@
       <c r="J60" s="2"/>
     </row>
     <row r="61" spans="1:10" ht="14.4" thickBot="1">
-      <c r="A61" s="25" t="s">
+      <c r="A61" s="23" t="s">
         <v>239</v>
       </c>
       <c r="C61" s="13" t="s">
@@ -2219,7 +2667,7 @@
       <c r="J61" s="2"/>
     </row>
     <row r="62" spans="1:10" ht="14.4" thickBot="1">
-      <c r="A62" s="25" t="s">
+      <c r="A62" s="23" t="s">
         <v>240</v>
       </c>
       <c r="C62" s="13" t="s">
@@ -2234,7 +2682,7 @@
       <c r="J62" s="2"/>
     </row>
     <row r="63" spans="1:10" ht="14.4" thickBot="1">
-      <c r="A63" s="25" t="s">
+      <c r="A63" s="23" t="s">
         <v>241</v>
       </c>
       <c r="C63" s="13" t="s">
@@ -2249,7 +2697,7 @@
       <c r="J63" s="2"/>
     </row>
     <row r="64" spans="1:10" ht="14.4" thickBot="1">
-      <c r="A64" s="25" t="s">
+      <c r="A64" s="23" t="s">
         <v>242</v>
       </c>
       <c r="C64" s="13" t="s">
@@ -2264,7 +2712,7 @@
       <c r="J64" s="2"/>
     </row>
     <row r="65" spans="1:10" ht="14.4" thickBot="1">
-      <c r="A65" s="25" t="s">
+      <c r="A65" s="23" t="s">
         <v>243</v>
       </c>
       <c r="C65" s="13" t="s">
@@ -2279,7 +2727,7 @@
       <c r="J65" s="2"/>
     </row>
     <row r="66" spans="1:10" ht="14.4" thickBot="1">
-      <c r="A66" s="25" t="s">
+      <c r="A66" s="23" t="s">
         <v>244</v>
       </c>
       <c r="C66" s="13" t="s">
@@ -2294,7 +2742,7 @@
       <c r="J66" s="2"/>
     </row>
     <row r="67" spans="1:10" ht="14.4" thickBot="1">
-      <c r="A67" s="25" t="s">
+      <c r="A67" s="23" t="s">
         <v>245</v>
       </c>
       <c r="C67" s="13" t="s">
@@ -2309,7 +2757,7 @@
       <c r="J67" s="2"/>
     </row>
     <row r="68" spans="1:10" ht="14.4" thickBot="1">
-      <c r="A68" s="25" t="s">
+      <c r="A68" s="23" t="s">
         <v>246</v>
       </c>
       <c r="C68" s="13" t="s">
@@ -3189,7 +3637,10 @@
       <c r="I142" s="1"/>
       <c r="J142" s="1"/>
     </row>
-    <row r="143" spans="3:10">
+    <row r="143" spans="3:10" ht="13.8">
+      <c r="C143" s="15" t="s">
+        <v>247</v>
+      </c>
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
       <c r="F143" s="1"/>
@@ -3199,6 +3650,9 @@
       <c r="J143" s="1"/>
     </row>
     <row r="144" spans="3:10">
+      <c r="C144" s="11" t="s">
+        <v>248</v>
+      </c>
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
       <c r="F144" s="1"/>
@@ -3207,7 +3661,10 @@
       <c r="I144" s="1"/>
       <c r="J144" s="1"/>
     </row>
-    <row r="145" spans="4:10">
+    <row r="145" spans="3:10">
+      <c r="C145" s="26" t="s">
+        <v>249</v>
+      </c>
       <c r="D145" s="1"/>
       <c r="E145" s="1"/>
       <c r="F145" s="1"/>
@@ -3216,7 +3673,10 @@
       <c r="I145" s="1"/>
       <c r="J145" s="1"/>
     </row>
-    <row r="146" spans="4:10">
+    <row r="146" spans="3:10">
+      <c r="C146" s="11" t="s">
+        <v>250</v>
+      </c>
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
       <c r="F146" s="1"/>
@@ -3225,7 +3685,10 @@
       <c r="I146" s="1"/>
       <c r="J146" s="1"/>
     </row>
-    <row r="147" spans="4:10">
+    <row r="147" spans="3:10">
+      <c r="C147" s="11" t="s">
+        <v>251</v>
+      </c>
       <c r="D147" s="1"/>
       <c r="E147" s="1"/>
       <c r="F147" s="1"/>
@@ -3234,7 +3697,10 @@
       <c r="I147" s="1"/>
       <c r="J147" s="1"/>
     </row>
-    <row r="148" spans="4:10">
+    <row r="148" spans="3:10">
+      <c r="C148" s="11" t="s">
+        <v>252</v>
+      </c>
       <c r="D148" s="1"/>
       <c r="E148" s="1"/>
       <c r="F148" s="1"/>
@@ -3243,7 +3709,10 @@
       <c r="I148" s="1"/>
       <c r="J148" s="1"/>
     </row>
-    <row r="149" spans="4:10">
+    <row r="149" spans="3:10">
+      <c r="C149" s="11" t="s">
+        <v>253</v>
+      </c>
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
       <c r="F149" s="1"/>
@@ -3252,7 +3721,10 @@
       <c r="I149" s="1"/>
       <c r="J149" s="1"/>
     </row>
-    <row r="150" spans="4:10">
+    <row r="150" spans="3:10">
+      <c r="C150" s="11" t="s">
+        <v>254</v>
+      </c>
       <c r="D150" s="1"/>
       <c r="E150" s="1"/>
       <c r="F150" s="1"/>
@@ -3261,7 +3733,10 @@
       <c r="I150" s="1"/>
       <c r="J150" s="1"/>
     </row>
-    <row r="151" spans="4:10">
+    <row r="151" spans="3:10">
+      <c r="C151" s="11" t="s">
+        <v>255</v>
+      </c>
       <c r="D151" s="1"/>
       <c r="E151" s="1"/>
       <c r="F151" s="1"/>
@@ -3270,7 +3745,10 @@
       <c r="I151" s="1"/>
       <c r="J151" s="1"/>
     </row>
-    <row r="152" spans="4:10">
+    <row r="152" spans="3:10">
+      <c r="C152" s="11" t="s">
+        <v>256</v>
+      </c>
       <c r="D152" s="1"/>
       <c r="E152" s="1"/>
       <c r="F152" s="1"/>
@@ -3279,7 +3757,10 @@
       <c r="I152" s="1"/>
       <c r="J152" s="1"/>
     </row>
-    <row r="153" spans="4:10">
+    <row r="153" spans="3:10">
+      <c r="C153" s="11" t="s">
+        <v>253</v>
+      </c>
       <c r="D153" s="1"/>
       <c r="E153" s="1"/>
       <c r="F153" s="1"/>
@@ -3288,7 +3769,10 @@
       <c r="I153" s="1"/>
       <c r="J153" s="1"/>
     </row>
-    <row r="154" spans="4:10">
+    <row r="154" spans="3:10">
+      <c r="C154" s="11" t="s">
+        <v>254</v>
+      </c>
       <c r="D154" s="1"/>
       <c r="E154" s="1"/>
       <c r="F154" s="1"/>
@@ -3297,7 +3781,7 @@
       <c r="I154" s="1"/>
       <c r="J154" s="1"/>
     </row>
-    <row r="155" spans="4:10">
+    <row r="155" spans="3:10">
       <c r="D155" s="1"/>
       <c r="E155" s="1"/>
       <c r="F155" s="1"/>
@@ -3306,7 +3790,7 @@
       <c r="I155" s="1"/>
       <c r="J155" s="1"/>
     </row>
-    <row r="156" spans="4:10">
+    <row r="156" spans="3:10">
       <c r="D156" s="1"/>
       <c r="E156" s="1"/>
       <c r="F156" s="1"/>
@@ -3315,7 +3799,10 @@
       <c r="I156" s="1"/>
       <c r="J156" s="1"/>
     </row>
-    <row r="157" spans="4:10">
+    <row r="157" spans="3:10" ht="13.8">
+      <c r="C157" s="15" t="s">
+        <v>257</v>
+      </c>
       <c r="D157" s="1"/>
       <c r="E157" s="1"/>
       <c r="F157" s="1"/>
@@ -3324,7 +3811,10 @@
       <c r="I157" s="1"/>
       <c r="J157" s="1"/>
     </row>
-    <row r="158" spans="4:10">
+    <row r="158" spans="3:10">
+      <c r="C158" s="11" t="s">
+        <v>258</v>
+      </c>
       <c r="D158" s="1"/>
       <c r="E158" s="1"/>
       <c r="F158" s="1"/>
@@ -3333,7 +3823,10 @@
       <c r="I158" s="1"/>
       <c r="J158" s="1"/>
     </row>
-    <row r="159" spans="4:10">
+    <row r="159" spans="3:10">
+      <c r="C159" s="11" t="s">
+        <v>259</v>
+      </c>
       <c r="D159" s="1"/>
       <c r="E159" s="1"/>
       <c r="F159" s="1"/>
@@ -3342,7 +3835,10 @@
       <c r="I159" s="1"/>
       <c r="J159" s="1"/>
     </row>
-    <row r="160" spans="4:10">
+    <row r="160" spans="3:10">
+      <c r="C160" s="11" t="s">
+        <v>260</v>
+      </c>
       <c r="D160" s="1"/>
       <c r="E160" s="1"/>
       <c r="F160" s="1"/>
@@ -3351,7 +3847,10 @@
       <c r="I160" s="1"/>
       <c r="J160" s="1"/>
     </row>
-    <row r="161" spans="4:10">
+    <row r="161" spans="3:10">
+      <c r="C161" s="11" t="s">
+        <v>261</v>
+      </c>
       <c r="D161" s="1"/>
       <c r="E161" s="1"/>
       <c r="F161" s="1"/>
@@ -3360,7 +3859,10 @@
       <c r="I161" s="1"/>
       <c r="J161" s="1"/>
     </row>
-    <row r="162" spans="4:10">
+    <row r="162" spans="3:10">
+      <c r="C162" s="11" t="s">
+        <v>262</v>
+      </c>
       <c r="D162" s="1"/>
       <c r="E162" s="1"/>
       <c r="F162" s="1"/>
@@ -3369,7 +3871,10 @@
       <c r="I162" s="1"/>
       <c r="J162" s="1"/>
     </row>
-    <row r="163" spans="4:10">
+    <row r="163" spans="3:10">
+      <c r="C163" s="11" t="s">
+        <v>263</v>
+      </c>
       <c r="D163" s="1"/>
       <c r="E163" s="1"/>
       <c r="F163" s="1"/>
@@ -3378,7 +3883,10 @@
       <c r="I163" s="1"/>
       <c r="J163" s="1"/>
     </row>
-    <row r="164" spans="4:10">
+    <row r="164" spans="3:10">
+      <c r="C164" s="11" t="s">
+        <v>264</v>
+      </c>
       <c r="D164" s="1"/>
       <c r="E164" s="1"/>
       <c r="F164" s="1"/>
@@ -3387,7 +3895,10 @@
       <c r="I164" s="1"/>
       <c r="J164" s="1"/>
     </row>
-    <row r="165" spans="4:10">
+    <row r="165" spans="3:10">
+      <c r="C165" s="11" t="s">
+        <v>265</v>
+      </c>
       <c r="D165" s="1"/>
       <c r="E165" s="1"/>
       <c r="F165" s="1"/>
@@ -3396,7 +3907,10 @@
       <c r="I165" s="1"/>
       <c r="J165" s="1"/>
     </row>
-    <row r="166" spans="4:10">
+    <row r="166" spans="3:10">
+      <c r="C166" s="11" t="s">
+        <v>266</v>
+      </c>
       <c r="D166" s="1"/>
       <c r="E166" s="1"/>
       <c r="F166" s="1"/>
@@ -3405,7 +3919,7 @@
       <c r="I166" s="1"/>
       <c r="J166" s="1"/>
     </row>
-    <row r="167" spans="4:10">
+    <row r="167" spans="3:10">
       <c r="D167" s="1"/>
       <c r="E167" s="1"/>
       <c r="F167" s="1"/>
@@ -3414,7 +3928,7 @@
       <c r="I167" s="1"/>
       <c r="J167" s="1"/>
     </row>
-    <row r="168" spans="4:10">
+    <row r="168" spans="3:10">
       <c r="D168" s="1"/>
       <c r="E168" s="1"/>
       <c r="F168" s="1"/>
@@ -3423,23 +3937,540 @@
       <c r="I168" s="1"/>
       <c r="J168" s="1"/>
     </row>
-    <row r="169" spans="4:10">
-      <c r="D169" s="1"/>
-      <c r="E169" s="1"/>
-      <c r="F169" s="1"/>
-      <c r="G169" s="1"/>
-      <c r="H169" s="1"/>
-      <c r="I169" s="1"/>
-      <c r="J169" s="1"/>
-    </row>
-    <row r="170" spans="4:10">
-      <c r="D170" s="1"/>
-      <c r="E170" s="1"/>
-      <c r="F170" s="1"/>
-      <c r="G170" s="1"/>
-      <c r="H170" s="1"/>
-      <c r="I170" s="1"/>
-      <c r="J170" s="1"/>
+    <row r="172" spans="3:10" ht="13.8">
+      <c r="C172" s="15" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="173" spans="3:10">
+      <c r="C173" s="11" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="174" spans="3:10">
+      <c r="C174" s="11" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="175" spans="3:10">
+      <c r="C175" s="11" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="176" spans="3:10">
+      <c r="C176" s="11" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="177" spans="3:3">
+      <c r="C177" s="11" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="178" spans="3:3">
+      <c r="C178" s="11" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="182" spans="3:3" ht="13.8">
+      <c r="C182" s="15" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="183" spans="3:3">
+      <c r="C183" s="11" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="184" spans="3:3">
+      <c r="C184" s="11" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="185" spans="3:3">
+      <c r="C185" s="11" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="186" spans="3:3">
+      <c r="C186" s="11" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="187" spans="3:3">
+      <c r="C187" s="11" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="188" spans="3:3">
+      <c r="C188" s="11" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="189" spans="3:3">
+      <c r="C189" s="11" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="190" spans="3:3">
+      <c r="C190" s="11" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="191" spans="3:3">
+      <c r="C191" s="11" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="192" spans="3:3">
+      <c r="C192" s="11" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="193" spans="3:3">
+      <c r="C193" s="11" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="194" spans="3:3">
+      <c r="C194" s="11" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="195" spans="3:3">
+      <c r="C195" s="11" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="196" spans="3:3">
+      <c r="C196" s="11" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="197" spans="3:3">
+      <c r="C197" s="11" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="198" spans="3:3">
+      <c r="C198" s="11" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="199" spans="3:3">
+      <c r="C199" s="11" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="202" spans="3:3" ht="13.8">
+      <c r="C202" s="15" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="203" spans="3:3">
+      <c r="C203" s="11" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="204" spans="3:3">
+      <c r="C204" s="11" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="205" spans="3:3">
+      <c r="C205" s="11" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="206" spans="3:3">
+      <c r="C206" s="11" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="207" spans="3:3">
+      <c r="C207" s="11" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="208" spans="3:3">
+      <c r="C208" s="11" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="209" spans="3:3">
+      <c r="C209" s="11" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="210" spans="3:3">
+      <c r="C210" s="11" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="211" spans="3:3">
+      <c r="C211" s="11" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="212" spans="3:3">
+      <c r="C212" s="11" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="213" spans="3:3">
+      <c r="C213" s="11" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="214" spans="3:3">
+      <c r="C214" s="11" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="215" spans="3:3">
+      <c r="C215" s="11" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="216" spans="3:3">
+      <c r="C216" s="11" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="217" spans="3:3">
+      <c r="C217" s="11" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="218" spans="3:3">
+      <c r="C218" s="11" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="219" spans="3:3">
+      <c r="C219" s="11" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="220" spans="3:3">
+      <c r="C220" s="11" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="221" spans="3:3">
+      <c r="C221" s="11" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="222" spans="3:3">
+      <c r="C222" s="11" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="223" spans="3:3">
+      <c r="C223" s="11" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="224" spans="3:3">
+      <c r="C224" s="11" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="225" spans="3:3">
+      <c r="C225" s="11" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="226" spans="3:3">
+      <c r="C226" s="11" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="227" spans="3:3">
+      <c r="C227" s="11" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="230" spans="3:3" ht="13.8">
+      <c r="C230" s="15" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="231" spans="3:3">
+      <c r="C231" s="11" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="232" spans="3:3">
+      <c r="C232" s="11" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="233" spans="3:3">
+      <c r="C233" s="11" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="234" spans="3:3">
+      <c r="C234" s="11" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="235" spans="3:3">
+      <c r="C235" s="11" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="236" spans="3:3">
+      <c r="C236" s="11" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="237" spans="3:3">
+      <c r="C237" s="11" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="238" spans="3:3">
+      <c r="C238" s="11" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="239" spans="3:3">
+      <c r="C239" s="11" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="240" spans="3:3">
+      <c r="C240" s="11" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="241" spans="3:3">
+      <c r="C241" s="11" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="242" spans="3:3">
+      <c r="C242" s="11" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="243" spans="3:3">
+      <c r="C243" s="11" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="244" spans="3:3">
+      <c r="C244" s="11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="245" spans="3:3">
+      <c r="C245" s="11" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="246" spans="3:3">
+      <c r="C246" s="11" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="247" spans="3:3">
+      <c r="C247" s="11" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="250" spans="3:3" ht="13.8">
+      <c r="C250" s="15" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="251" spans="3:3">
+      <c r="C251" s="11" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="252" spans="3:3">
+      <c r="C252" s="11" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="253" spans="3:3">
+      <c r="C253" s="11" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="254" spans="3:3">
+      <c r="C254" s="11" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="255" spans="3:3">
+      <c r="C255" s="11" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="256" spans="3:3">
+      <c r="C256" s="11" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="257" spans="3:3">
+      <c r="C257" s="11" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="261" spans="3:3" ht="13.8">
+      <c r="C261" s="15" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="262" spans="3:3">
+      <c r="C262" s="11" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="263" spans="3:3">
+      <c r="C263" s="11" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="264" spans="3:3">
+      <c r="C264" s="11" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="265" spans="3:3">
+      <c r="C265" s="11" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="266" spans="3:3">
+      <c r="C266" s="11" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="267" spans="3:3">
+      <c r="C267" s="11" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="268" spans="3:3">
+      <c r="C268" s="11" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="269" spans="3:3">
+      <c r="C269" s="11" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="270" spans="3:3">
+      <c r="C270" s="11" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="271" spans="3:3">
+      <c r="C271" s="11" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="272" spans="3:3">
+      <c r="C272" s="11" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="273" spans="3:3">
+      <c r="C273" s="11" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="274" spans="3:3">
+      <c r="C274" s="11" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="275" spans="3:3">
+      <c r="C275" s="11" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="276" spans="3:3">
+      <c r="C276" s="11" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="277" spans="3:3">
+      <c r="C277" s="11" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="278" spans="3:3">
+      <c r="C278" s="11" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="279" spans="3:3">
+      <c r="C279" s="11" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="280" spans="3:3">
+      <c r="C280" s="11" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="281" spans="3:3">
+      <c r="C281" s="11" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="282" spans="3:3">
+      <c r="C282" s="11" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="283" spans="3:3">
+      <c r="C283" s="11" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="284" spans="3:3">
+      <c r="C284" s="11" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="285" spans="3:3">
+      <c r="C285" s="11" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="286" spans="3:3">
+      <c r="C286" s="11" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="287" spans="3:3">
+      <c r="C287" s="11" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="288" spans="3:3">
+      <c r="C288" s="11" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="289" spans="3:3">
+      <c r="C289" s="11" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="290" spans="3:3">
+      <c r="C290" s="11" t="s">
+        <v>395</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3453,10 +4484,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -3679,6 +4710,121 @@
         <v>178</v>
       </c>
     </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
+        <v>289</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
